--- a/load testing/1 instance monolith.xlsx
+++ b/load testing/1 instance monolith.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sibbt\Documents\uni_work\year_3\Semester_2\Final_Year_Project\monolithic_implementation\load testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C256BC54-AD1B-47D3-99EE-0F334F94B580}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE81CE-8A82-44C8-8EAC-961E3DCE5E64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0ED3D270-99D1-4EFD-B3C3-3E079675512C}"/>
+    <workbookView xWindow="29880" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{0ED3D270-99D1-4EFD-B3C3-3E079675512C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -99,19 +96,22 @@
     <t>122008</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>125501</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>910000</t>
-  </si>
-  <si>
     <t>number of failed requests</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>89.752</t>
+  </si>
+  <si>
+    <t>91.58</t>
+  </si>
+  <si>
+    <t>915800</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -621,13 +621,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,13 +641,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
